--- a/багрепорт.xlsx
+++ b/багрепорт.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55048D59-5E67-410A-B1D7-DD36C4B56DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -210,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,7 +444,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,27 +456,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,7 +496,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -533,7 +540,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -571,7 +584,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -609,7 +628,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -647,7 +672,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -684,7 +715,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -722,7 +759,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -760,7 +803,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -798,7 +847,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Рисунок 12"/>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -836,7 +891,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Рисунок 13"/>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -864,15 +925,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2026920</xdr:colOff>
+          <xdr:colOff>2028825</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3192780</xdr:colOff>
+          <xdr:colOff>3190875</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>601980</xdr:rowOff>
+          <xdr:rowOff>600075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -880,6 +941,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -933,7 +997,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -971,7 +1041,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1009,7 +1085,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Рисунок 14"/>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1047,7 +1129,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Рисунок 15"/>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1075,15 +1163,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>2026920</xdr:colOff>
+          <xdr:colOff>2028825</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>3192780</xdr:colOff>
+          <xdr:colOff>3190875</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>601980</xdr:rowOff>
+          <xdr:rowOff>600075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1091,6 +1179,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1134,15 +1225,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>2026920</xdr:colOff>
+          <xdr:colOff>2028825</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>3192780</xdr:colOff>
+          <xdr:colOff>3190875</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>601980</xdr:rowOff>
+          <xdr:rowOff>600075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1150,6 +1241,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1193,15 +1287,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>2026920</xdr:colOff>
+          <xdr:colOff>2028825</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>3192780</xdr:colOff>
+          <xdr:colOff>3190875</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>601980</xdr:rowOff>
+          <xdr:rowOff>600075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1209,6 +1303,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1252,15 +1349,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>2026920</xdr:colOff>
+          <xdr:colOff>2028825</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>3192780</xdr:colOff>
+          <xdr:colOff>3190875</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>601980</xdr:rowOff>
+          <xdr:rowOff>600075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1268,6 +1365,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1311,15 +1411,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1950720</xdr:colOff>
+          <xdr:colOff>1952625</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>3116580</xdr:colOff>
+          <xdr:colOff>3114675</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>601980</xdr:rowOff>
+          <xdr:rowOff>600075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1327,6 +1427,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1380,7 +1483,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Рисунок 26"/>
+        <xdr:cNvPr id="27" name="Рисунок 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1425,15 +1534,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>1950720</xdr:colOff>
+          <xdr:colOff>1952625</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>3116580</xdr:colOff>
+          <xdr:colOff>3114675</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>601980</xdr:rowOff>
+          <xdr:rowOff>600075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1441,6 +1550,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1494,7 +1606,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1532,7 +1650,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1560,15 +1684,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>2758440</xdr:colOff>
+          <xdr:colOff>2762250</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>3924300</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>601980</xdr:rowOff>
+          <xdr:rowOff>600075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1576,6 +1700,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1619,13 +1746,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>1874520</xdr:colOff>
+          <xdr:colOff>1876425</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>3040380</xdr:colOff>
+          <xdr:colOff>3038475</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
@@ -1635,6 +1762,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1678,13 +1808,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>1874520</xdr:colOff>
+          <xdr:colOff>1876425</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>3040380</xdr:colOff>
+          <xdr:colOff>3038475</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
@@ -1694,6 +1824,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1736,20 +1869,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:K9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:K9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Поле"/>
-    <tableColumn id="2" name="1"/>
-    <tableColumn id="3" name="2" dataDxfId="0"/>
-    <tableColumn id="4" name="3"/>
-    <tableColumn id="5" name="4"/>
-    <tableColumn id="6" name="5"/>
-    <tableColumn id="7" name="6"/>
-    <tableColumn id="8" name="7"/>
-    <tableColumn id="9" name="8"/>
-    <tableColumn id="10" name="9"/>
-    <tableColumn id="11" name="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Поле"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2017,30 +2150,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="67" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" customWidth="1"/>
-    <col min="2" max="2" width="79.88671875" customWidth="1"/>
-    <col min="3" max="3" width="86.44140625" customWidth="1"/>
-    <col min="4" max="4" width="84.88671875" customWidth="1"/>
-    <col min="5" max="5" width="77.77734375" customWidth="1"/>
-    <col min="6" max="6" width="67.44140625" customWidth="1"/>
-    <col min="7" max="7" width="78.5546875" customWidth="1"/>
-    <col min="8" max="8" width="62.5546875" customWidth="1"/>
-    <col min="9" max="9" width="100.77734375" customWidth="1"/>
-    <col min="10" max="10" width="62.21875" customWidth="1"/>
-    <col min="11" max="11" width="72.77734375" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="79.85546875" customWidth="1"/>
+    <col min="3" max="3" width="86.42578125" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" customWidth="1"/>
+    <col min="5" max="5" width="77.7109375" customWidth="1"/>
+    <col min="6" max="6" width="67.42578125" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" customWidth="1"/>
+    <col min="8" max="8" width="62.5703125" customWidth="1"/>
+    <col min="9" max="9" width="100.7109375" customWidth="1"/>
+    <col min="10" max="10" width="62.28515625" customWidth="1"/>
+    <col min="11" max="11" width="72.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2208,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -2145,7 +2278,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2180,7 +2313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -2215,7 +2348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="390" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="390" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2363,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="136.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -2265,7 +2398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>35</v>
       </c>
@@ -2300,12 +2433,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="52.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="52.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
   </sheetData>
@@ -2323,15 +2456,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>2026920</xdr:colOff>
+                    <xdr:colOff>2028825</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>3192780</xdr:colOff>
+                    <xdr:colOff>3190875</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>601980</xdr:rowOff>
+                    <xdr:rowOff>600075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2345,15 +2478,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>2026920</xdr:colOff>
+                    <xdr:colOff>2028825</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>3192780</xdr:colOff>
+                    <xdr:colOff>3190875</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>601980</xdr:rowOff>
+                    <xdr:rowOff>600075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2367,15 +2500,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>2026920</xdr:colOff>
+                    <xdr:colOff>2028825</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>3192780</xdr:colOff>
+                    <xdr:colOff>3190875</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>601980</xdr:rowOff>
+                    <xdr:rowOff>600075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2389,15 +2522,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>2026920</xdr:colOff>
+                    <xdr:colOff>2028825</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>3192780</xdr:colOff>
+                    <xdr:colOff>3190875</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>601980</xdr:rowOff>
+                    <xdr:rowOff>600075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2411,15 +2544,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>2026920</xdr:colOff>
+                    <xdr:colOff>2028825</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>3192780</xdr:colOff>
+                    <xdr:colOff>3190875</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>601980</xdr:rowOff>
+                    <xdr:rowOff>600075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2433,15 +2566,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>1950720</xdr:colOff>
+                    <xdr:colOff>1952625</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>3116580</xdr:colOff>
+                    <xdr:colOff>3114675</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>601980</xdr:rowOff>
+                    <xdr:rowOff>600075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2455,15 +2588,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>1950720</xdr:colOff>
+                    <xdr:colOff>1952625</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>3116580</xdr:colOff>
+                    <xdr:colOff>3114675</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>601980</xdr:rowOff>
+                    <xdr:rowOff>600075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2477,15 +2610,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>2758440</xdr:colOff>
+                    <xdr:colOff>2762250</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>3924300</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>601980</xdr:rowOff>
+                    <xdr:rowOff>600075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2499,13 +2632,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>1874520</xdr:colOff>
+                    <xdr:colOff>1876425</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>99060</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>3040380</xdr:colOff>
+                    <xdr:colOff>3038475</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>609600</xdr:rowOff>
                   </to>
@@ -2521,13 +2654,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>1874520</xdr:colOff>
+                    <xdr:colOff>1876425</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>99060</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>3040380</xdr:colOff>
+                    <xdr:colOff>3038475</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>609600</xdr:rowOff>
                   </to>

--- a/багрепорт.xlsx
+++ b/багрепорт.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55048D59-5E67-410A-B1D7-DD36C4B56DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9273E6-1DA4-408C-B5DC-B349D365228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2154,7 +2154,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="67" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="67" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
